--- a/中英文对照表.xlsx
+++ b/中英文对照表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45AE1CB2-4C78-45AB-9D1D-E0E902EF57B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAB9424-8D06-4890-8742-01BF95F16C84}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>two's complement</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,7 +182,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>字长是4/8</t>
+    <t>字长是4/8字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接存储器存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">register file </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄存器文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态随机访问存储器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concurrency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parallelism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyperthreading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simultaneous multi-threading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单指令，多数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floating-point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -685,6 +772,102 @@
         <v>40</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
